--- a/car_dealer_single_page.xlsx
+++ b/car_dealer_single_page.xlsx
@@ -564,448 +564,448 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023 Mercedes-Benz AMG GLE 63 S</t>
+          <t>2019 Mercedes-Benz AMG E 53 Base 4MATIC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11,172 mi.</t>
+          <t>23,163 mi.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Atlanta Northeast</t>
+          <t>Mercedes-Benz of State College</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>n/a</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,093 </t>
+          <t xml:space="preserve">2 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$121,790</t>
+          <t>$53,891</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz AMG GLE 53 Base</t>
+          <t>2020 Mercedes-Benz GLE 450 Base</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15,015 mi.</t>
+          <t>60,577 mi.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Atlanta Northeast</t>
+          <t>Viti, Inc.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,093 </t>
+          <t xml:space="preserve">744 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$88,356</t>
+          <t>$47,988</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019 Mercedes-Benz AMG E 53 Base 4MATIC</t>
+          <t>2021 Mercedes-Benz AMG GLE 53 Base</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23,163 mi.</t>
+          <t>24,844 mi.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of State College</t>
+          <t>Viti, Inc.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 </t>
+          <t xml:space="preserve">744 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$53,891</t>
+          <t>$78,198</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz GLE 450 Base</t>
+          <t>2020 Mercedes-Benz GLS 450 Base 4MATIC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>60,577 mi.</t>
+          <t>46,681 mi.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Viti, Inc.</t>
+          <t>Mercedes-Benz of Bellevue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">744 </t>
+          <t xml:space="preserve">1,115 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$47,988</t>
+          <t>$53,990</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021 Mercedes-Benz AMG GLE 53 Base</t>
+          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24,844 mi.</t>
+          <t>40,020 mi.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Viti, Inc.</t>
+          <t>Feldmann Imports</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">744 </t>
+          <t xml:space="preserve">645 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$78,198</t>
+          <t>$45,175</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz GLS 450 Base 4MATIC</t>
+          <t>2023 Mercedes-Benz AMG GLE 63 S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>46,681 mi.</t>
+          <t>11,172 mi.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Bellevue</t>
+          <t>Mercedes-Benz of Atlanta Northeast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,115 </t>
+          <t xml:space="preserve">2,093 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$53,990</t>
+          <t>$121,790</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz AMG A 35 Base</t>
+          <t>2022 Mercedes-Benz AMG GLE 53 Base</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16,305 mi.</t>
+          <t>15,015 mi.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mercedes-Benz Manhattan Inc.</t>
+          <t>Mercedes-Benz of Atlanta Northeast</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">472 </t>
+          <t xml:space="preserve">2,093 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$42,900</t>
+          <t>$88,356</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023 Mercedes-Benz AMG C 43 Base 4MATIC</t>
+          <t>2021 Mercedes-Benz AMG GLE 53 Base</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4,128 mi.</t>
+          <t>22,296 mi.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Chicago</t>
+          <t>Mercedes-Benz of Edison</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,339 </t>
+          <t xml:space="preserve">4,289 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$62,990</t>
+          <t>$78,920</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022 Mercedes-Benz GLE 350 Base 4MATIC</t>
+          <t>2020 Mercedes-Benz A-Class A 220 4MATIC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9,176 mi.</t>
+          <t>15,842 mi.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Fredericksburg</t>
+          <t>Silver Star Motors</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">441 </t>
+          <t xml:space="preserve">826 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$57,000</t>
+          <t>$28,899</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz E-Class E 350 4MATIC</t>
+          <t>2023 Mercedes-Benz AMG C 43 Base 4MATIC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>34,550 mi.</t>
+          <t>4,128 mi.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Edison</t>
+          <t>Mercedes-Benz of Chicago</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">4,289 </t>
+          <t xml:space="preserve">1,339 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$39,355</t>
+          <t>$62,990</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021 Mercedes-Benz AMG GLE 53 Base</t>
+          <t>2022 Mercedes-Benz GLE 350 Base 4MATIC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22,296 mi.</t>
+          <t>9,176 mi.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Edison</t>
+          <t>Mercedes-Benz of Fredericksburg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4,289 </t>
+          <t xml:space="preserve">441 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$78,920</t>
+          <t>$57,000</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz A-Class A 220 4MATIC</t>
+          <t>2020 Mercedes-Benz AMG A 35 Base</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>15,842 mi.</t>
+          <t>16,305 mi.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Silver Star Motors</t>
+          <t>Mercedes-Benz Manhattan Inc.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">826 </t>
+          <t xml:space="preserve">472 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$28,899</t>
+          <t>$42,900</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2016 Mercedes-Benz GLE-Class GLE 350 4MATIC</t>
+          <t>2020 Mercedes-Benz E-Class E 350 4MATIC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>92,234 mi.</t>
+          <t>34,550 mi.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Naperville</t>
+          <t>Mercedes-Benz of Edison</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">966 </t>
+          <t xml:space="preserve">4,289 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$21,494</t>
+          <t>$39,355</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz GLE 350 Base 4MATIC</t>
+          <t>2016 Mercedes-Benz GLE-Class GLE 350 4MATIC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>40,020 mi.</t>
+          <t>92,234 mi.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Feldmann Imports</t>
+          <t>Mercedes-Benz of Naperville</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">645 </t>
+          <t xml:space="preserve">966 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$45,175</t>
+          <t>$21,494</t>
         </is>
       </c>
     </row>
@@ -1044,96 +1044,96 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020 Mercedes-Benz GLA 250 Base</t>
+          <t>2022 Mercedes-Benz EQB 300 Base 4MATIC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24,908 mi.</t>
+          <t>1,947 mi.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of North Olmsted</t>
+          <t>Fletcher Jones Imports</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1,534 </t>
+          <t xml:space="preserve">2,444 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$26,997</t>
+          <t>$41,992</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019 Mercedes-Benz AMG E 53 Base 4MATIC</t>
+          <t>2023 Mercedes-Benz S-Class S 500 4MATIC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22,879 mi.</t>
+          <t>9,823 mi.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mercedes-Benz of Catonsville</t>
+          <t>Mercedes-Benz of Fredericksburg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">514 </t>
+          <t xml:space="preserve">441 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$50,200</t>
+          <t>$103,000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2021 Mercedes-Benz E-Class E 350</t>
+          <t>2020 Mercedes-Benz GLA 250 Base</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>43,012 mi.</t>
+          <t>24,908 mi.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Envision Mercedes-Benz of West Covina</t>
+          <t>Mercedes-Benz of North Olmsted</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">614 </t>
+          <t xml:space="preserve">1,534 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$40,997</t>
+          <t>$26,997</t>
         </is>
       </c>
     </row>
